--- a/biology/Zoologie/Dresserus_colsoni/Dresserus_colsoni.xlsx
+++ b/biology/Zoologie/Dresserus_colsoni/Dresserus_colsoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dresserus colsoni est une espèce d'araignées aranéomorphes de la famille des Eresidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dresserus colsoni est une espèce d'araignées aranéomorphes de la famille des Eresidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Afrique du Sud[1]. Elle se rencontre au Limpopo, au Gauteng, au Mpumalanga et au KwaZulu-Natal[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Afrique du Sud. Elle se rencontre au Limpopo, au Gauteng, au Mpumalanga et au KwaZulu-Natal.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 16 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 16 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Richard Colson[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Richard Colson.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tucker, 1920 : Contributions to the South African Arachnid Fauna. II. On some new South African spiders of the families Barychelidae, Dipluridae, Eresidae, Zodariidae, Heracliidae, Urocteidae, Clubionidae. Annals of the South African Museum, vol. 17, p. 439-488 (texte intégral).</t>
         </is>
